--- a/DOM_Banner/output/dept_banner/Kanwal Bains_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Kanwal Bains_2023.xlsx
@@ -1054,7 +1054,7 @@
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W4238089809", "https://openalex.org/W4240236077", "https://openalex.org/W4251581028", "https://openalex.org/W2766588635", "https://openalex.org/W2332797319", "https://openalex.org/W2542248393", "https://openalex.org/W3204761618", "https://openalex.org/W2366434335", "https://openalex.org/W2064286441", "https://openalex.org/W4214780584")</t>
+          <t>c("https://openalex.org/W124733979", "https://openalex.org/W1889629264", "https://openalex.org/W2143014395", "https://openalex.org/W2072631600", "https://openalex.org/W2151231973", "https://openalex.org/W2126278804", "https://openalex.org/W4382918553", "https://openalex.org/W1979895878", "https://openalex.org/W2181745077", "https://openalex.org/W2321381854")</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W2964379663", "https://openalex.org/W1565849830", "https://openalex.org/W2013028547", "https://openalex.org/W2386230525", "https://openalex.org/W4238994871", "https://openalex.org/W587651164", "https://openalex.org/W2396339825", "https://openalex.org/W2414647507", "https://openalex.org/W2065680969", "https://openalex.org/W2024342750")</t>
+          <t>c("https://openalex.org/W2769591801", "https://openalex.org/W3000077724", "https://openalex.org/W3032753154", "https://openalex.org/W2552948504", "https://openalex.org/W4239819833", "https://openalex.org/W2572574358", "https://openalex.org/W4320041232", "https://openalex.org/W2497092908", "https://openalex.org/W4386893802", "https://openalex.org/W2356894405")</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
@@ -1408,7 +1408,7 @@
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W2246063262", "https://openalex.org/W2141522520", "https://openalex.org/W1984304831", "https://openalex.org/W3025110062", "https://openalex.org/W4292539933", "https://openalex.org/W2406430194", "https://openalex.org/W2997146678", "https://openalex.org/W2994793273", "https://openalex.org/W2015975988", "https://openalex.org/W2377678510")</t>
+          <t>c("https://openalex.org/W2752106965", "https://openalex.org/W2351153220", "https://openalex.org/W2605247606", "https://openalex.org/W205863776", "https://openalex.org/W3215560449", "https://openalex.org/W2724705851", "https://openalex.org/W3030236844", "https://openalex.org/W2896747583", "https://openalex.org/W2425750600", "https://openalex.org/W2248003539")</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
@@ -1582,7 +1582,7 @@
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W2047967234", "https://openalex.org/W2439875401", "https://openalex.org/W2003938723", "https://openalex.org/W2118496982", "https://openalex.org/W2525756941", "https://openalex.org/W4238867864", "https://openalex.org/W2002120878", "https://openalex.org/W2364998975", "https://openalex.org/W1586374228", "https://openalex.org/W2369162477")</t>
+          <t>c("https://openalex.org/W2748952813", "https://openalex.org/W3031052312", "https://openalex.org/W4389568370", "https://openalex.org/W3032375762", "https://openalex.org/W1995515455", "https://openalex.org/W2080531066", "https://openalex.org/W2586801360", "https://openalex.org/W3108674512", "https://openalex.org/W1506200166", "https://openalex.org/W1489783725")</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">

--- a/DOM_Banner/output/dept_banner/Kanwal Bains_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Kanwal Bains_2023.xlsx
@@ -2853,22 +2853,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>The American Journal of Gastroenterology</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://openalex.org/S66441642</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0002-9270</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -2933,7 +2933,7 @@
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
@@ -3206,22 +3206,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>The American Journal of Gastroenterology</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://openalex.org/S66441642</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0002-9270</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -3286,7 +3286,7 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
@@ -3383,22 +3383,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>The American Journal of Gastroenterology</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://openalex.org/S66441642</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0002-9270</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -3463,7 +3463,7 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">

--- a/DOM_Banner/output/dept_banner/Kanwal Bains_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Kanwal Bains_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Department of Internal Medicine, University of Arizona, South Campus, Tuscon, AZ; Department of Hepatology, Liver Institute Northwest, Seattle, WA; Department of Internal Medicine, University of Arizona, South Campus, Tuscon, AZ; Department of Internal Medicine, University of California San Francisco, Fresno, CA; Department of Medicine, Dayanand Medical College and Hospital, Ludhiana; Department of Medicine, Dayanand Medical College and Hospital, Ludhiana; Department of Medicine, Dayanand Medical College and Hospital, Ludhiana; Department of Internal Medicine, Ross University School of Medicine, Bridgetown; Department of Hematology &amp; Medical Oncology, University of Arizona Cancer Center, Tuscon, AZ</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4380224536</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Impact of Aspirin Use on Outcomes in Patients With Hepatocellular Cancer: A Nationwide Analysis</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>World Journal of Oncology</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>https://doi.org/10.14740/wjon1601</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I2" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37350804</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.14740/wjon1601</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,39 +539,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Department of Internal Medicine, University of California, San Francisco, Fresno, California, USA; Liver Institute Northwest, Seattle, WA, USA; Department of Internal Medicine, University of Arizona, Tucson, AZ, USA; Department of Internal Medicine, University of Arizona, Tucson, AZ, USA; Ross University School of Medicine, Barbados; Dayanand Medical College and Hospital, India; Punjab Institute of Medical Sciences, India; Graduate Program in Public Health, Icahn School of Medicine, Mount Sinai, NewYork, NY, USA; Department of Gastroenterology and Hepatology, University of California, San Francisco, Fresno, California, USA</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4361285374</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Incidence and factors associated with portal vein thrombosis in patients with acute pancreatitis: A United States national retrospective study</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Pancreatology</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.pan.2023.03.008</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -569,35 +579,40 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37012176</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.pan.2023.03.008</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,39 +626,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>University of Arizona, Tucson, AZ; Liver Institute Northwest, Seattle, WA; University of California San Francisco- Fresno, Fresno, CA; Dayanand Medical College &amp; Hospital, Ludhiana, India; Punjab Institute of Medical Sciences, Jalandhar, India; Ross University School of Medicine, Bridgetown, Barbados; Dayanand Medical College &amp; Hospital, Ludhiana, India; Dayanand Medical College &amp; Hospital, Ludhiana, India; University of Arizona, Tucson, AZ; Adele R Decof Cancer Center at Roger Williams Medical Center, Providence, RI</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4379336507</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Effect on in-hospital outcomes of patients with hepatocellular carcinoma on aspirin.</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Journal of Clinical Oncology</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2023.41.16_suppl.e16162</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -651,35 +666,40 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2023.41.16_suppl.e16162</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,39 +713,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>University of Arizona, Tucson, AZ; University of Arizona, Tucson, AZ; Liver Institute Northwest, Seattle, WA; University of California San Francisco- Fresno, Fresno, CA; Dayanand Medical College &amp; Hospital, Ludhiana, India; Ross University School of Medicine, Bridgetown, Barbados; Dayanand Medical College &amp; Hospital, Ludhiana, India; Dayanand Medical College &amp; Hospital, Ludhiana, India; Adele R Decof Cancer Center at Roger Williams Medical Center, Providence, RI</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4379339736</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Comparison of outcomes of &lt;i&gt;Clostridium difficile&lt;/i&gt; infection in autologous stem cell transplant recipients compared to allogenic stem cell transplant recipients.</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Journal of Clinical Oncology</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2023.41.16_suppl.e19064</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -733,35 +753,40 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2023.41.16_suppl.e19064</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,39 +800,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>University of Arizona, Tucson, AZ; Liver Institute Northwest, Seattle, WA; University of California San Francisco- Fresno, Fresno, CA; University of Arizona, Tucson, AZ; Dayanand Medical College &amp; Hospital, Ludhiana, India; Dayanand Medical College &amp; Hospital, Ludhiana, India; Ross University School of Medicine, Bridgetown, Barbados; Orange Park Medical Center, Orange Park, FL; Adele R Decof Cancer Center at Roger Williams Medical Center, Providence, RI</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4379341826</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Effect on hospital outcomes of hematopoietic stem cell transplant recipients with &lt;i&gt;Clostridium difficile&lt;/i&gt; infection.</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Journal of Clinical Oncology</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2023.41.16_suppl.e20003</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -815,35 +840,40 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2023.41.16_suppl.e20003</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,39 +887,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4379780627</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>TYPE OF ANESTHESIA AND OUTCOMES IN PATIENTS UNDERGOING ENDOSCOPIC DISIMPACTION OF ESOPHAGEAL FOOD BOLUS - A MULTI-SITE EXPERIENCE</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Gastrointestinal Endoscopy</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.gie.2023.04.293</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -897,35 +927,40 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.gie.2023.04.293</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -939,39 +974,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4379790595</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>THE “AFTER HOURS” EFFECT AND ROLE OF ENDOSCOPY SETTING ON OUTCOMES IN PATIENTS WITH ESOPHAGEAL FOOD IMPACTION: RESULTS FROM A MULTISITE STUDY</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Gastrointestinal Endoscopy</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.gie.2023.04.1538</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I8" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -979,35 +1014,40 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.gie.2023.04.1538</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1021,39 +1061,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4379803144</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>TYPE OF ANESTHESIA AND OUTCOMES IN PATIENTS UNDERGOING ENDOSCOPIC DISIMPACTION OF ESOPHAGEAL FOOD BOLUS - A MULTI-SITE EXPERIENCE</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Gastrointestinal Endoscopy</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.gie.2023.04.1922</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I9" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1061,35 +1101,40 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.gie.2023.04.1922</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1103,39 +1148,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4379930212</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>THE “AFTER HOURS” EFFECT AND ROLE OF ENDOSCOPY SETTING ON OUTCOMES IN PATIENTS WITH ESOPHAGEAL FOOD IMPACTION: RESULTS FROM A MULTISITE STUDY</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Gastrointestinal Endoscopy</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.gie.2023.04.1648</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I10" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1143,35 +1188,40 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.gie.2023.04.1648</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1185,39 +1235,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4379931836</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>TYPE OF ANESTHESIA AND OUTCOMES IN PATIENTS UNDERGOING ENDOSCOPIC DISIMPACTION OF ESOPHAGEAL FOOD BOLUS - A MULTI-SITE EXPERIENCE</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Gastrointestinal Endoscopy</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.gie.2023.04.2042</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I11" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1225,35 +1275,40 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.gie.2023.04.2042</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1262,80 +1317,85 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Kanwal Bains, Shivam Kalra, Inderjeet Singh, Jay Patel, Isha Kohli, Monisha Dhiman, Dino Dukovic, Aalam Sohal, Avin Aggarwal</t>
+          <t>Jay Patel, Kanwal Bains, Shivam Kalra, Inderjeet Singh, Isha Kohli, Dino Dukovic, Hunza Chaudhry, Aalam Sohal, Juliana Yang, Steven Tringali</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4386219558</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Prevalence and Impact of Malnutrition in Hospitalizations Among Celiac Diseases: A Nationwide Analysis</t>
+          <t>https://openalex.org/W4387671273</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2023-08-28</t>
+          <t>The Effects of Malnutrition on Inpatient Outcomes in Patients With Gastroparesis: A Nationwide Analysis</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
+          <t>2023-10-15</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>Cureus</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Cureus, Inc.</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.7759/cureus.44247</t>
-        </is>
-      </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.7759/cureus.47082</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37772221</t>
-        </is>
-      </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.7759/cureus.44247</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/38022097</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.7759/cureus.47082</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1344,80 +1404,85 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Jay Patel, Kanwal Bains, Shivam Kalra, Inderjeet Singh, Isha Kohli, Dino Dukovic, Hunza Chaudhry, Aalam Sohal, Juliana Yang, Steven Tringali</t>
+          <t>Kanwal Bains, Aalam Sohal, Hunza Chaudhry, Ishandeep Singh, Shivam Kalra, Dino Dukovic, Avin Aggarwal</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387671273</t>
+          <t>University of Arizona, Tucson, AZ;; Liver Institute Northwest, Seattle, WA;; University of California San Francisco, Fresno, CA;; Dayanand Medical College and Hospital, Ludhiana, Punjab, India;; Trident Medical Center, Charleston, SC;; Ross University School of Medicine, Maramar, FL.; University of Arizona, Tucson, AZ;</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>The Effects of Malnutrition on Inpatient Outcomes in Patients With Gastroparesis: A Nationwide Analysis</t>
+          <t>https://openalex.org/W4387732653</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2023-10-15</t>
+          <t>S1832 Impact of Malnutrition in Patients Hospitalized With Celiac Disease: Analysis of National Inpatient Sample 2016-2020</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Cureus</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Cureus, Inc.</t>
+          <t>The American Journal of Gastroenterology</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.7759/cureus.47082</t>
+          <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.14309/01.ajg.0000956968.17948.69</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/38022097</t>
-        </is>
-      </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.7759/cureus.47082</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.14309/01.ajg.0000956968.17948.69</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1426,80 +1491,85 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Kanwal Bains, Aalam Sohal, Hunza Chaudhry, Ishandeep Singh, Shivam Kalra, Dino Dukovic, Avin Aggarwal</t>
+          <t>Kanwal Bains, Aalam Sohal, Hunza Chaudhry, Shivam Kalra, Isha Kohli, Randip Kaur Bains, Dino Dukovic</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387732653</t>
+          <t>University of Arizona, Tucson, AZ;; Liver Institute Northwest, Seattle, WA;; University of California San Francisco, Fresno, CA;; Trident Medical Center, Charleston, SC;; Icahn School of Medicine at Mount Sinai, New York, NY;; Merit Health Wesley Medical Center, Providence, RI;; Ross University School of Medicine, Maramar, FL.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>S1832 Impact of Malnutrition in Patients Hospitalized With Celiac Disease: Analysis of National Inpatient Sample 2016-2020</t>
+          <t>https://openalex.org/W4387733710</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>S684 Depression Is Associated With Higher Resource Utilization in Patients With Gastroparesis: Analysis of 220,425 Hospitalizations</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>2023-10-01</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>The American Journal of Gastroenterology</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.14309/01.ajg.0000956968.17948.69</t>
-        </is>
-      </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.14309/01.ajg.0000952376.02275.8d</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.14309/01.ajg.0000956968.17948.69</t>
-        </is>
-      </c>
       <c r="P14" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.14309/01.ajg.0000952376.02275.8d</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1508,80 +1578,85 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Kanwal Bains, Aalam Sohal, Hunza Chaudhry, Shivam Kalra, Isha Kohli, Randip Kaur Bains, Dino Dukovic</t>
+          <t>Shivam Kalra, Aalam Sohal, Hunza Chaudhry, Jay Patel, Ishandeep Singh, Isha Kohli, Kanwal Bains, Dino Dukovic, Marina Roytman</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387733710</t>
+          <t>Trident Medical Center, Charleston, SC;; Liver Institute Northwest, Seattle, WA;; University of California San Francisco, Fresno, CA;; Orange Park Medical Center, Jacksonville, FL;; Dayanand Medical College and Hospital, Ludhiana, Punjab, India;; Icahn School of Medicine at Mount Sinai, New York, NY;; University of Arizona, Tucson, AZ;; Ross University School of Medicine, Maramar, FL.; University of California San Francisco, Fresno, CA;</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>S684 Depression Is Associated With Higher Resource Utilization in Patients With Gastroparesis: Analysis of 220,425 Hospitalizations</t>
+          <t>https://openalex.org/W4387749630</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>S1566 Patients With NAFLD Are at an Increased Risk of Helicobacter pylori Infections: Results From National Inpatient Sample Analysis</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>2023-10-01</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>The American Journal of Gastroenterology</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.14309/01.ajg.0000952376.02275.8d</t>
-        </is>
-      </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.14309/01.ajg.0000955904.16060.4f</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.14309/01.ajg.0000952376.02275.8d</t>
-        </is>
-      </c>
       <c r="P15" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.14309/01.ajg.0000955904.16060.4f</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1590,80 +1665,85 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Jay Patel, Aalam Sohal, Armaan Dhaliwal, Hunza Chaudhry, Ishandeep Singh, Shivam Kalra, Dino Dukovic, Kanwal Bains</t>
+          <t>Jay Patel, Aalam Sohal, Kanwal Bains, Hunza Chaudhry, Isha Kohli, Kirti Arora, Shivam Kalra, Dino Dukovic, Marina Roytman</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387733823</t>
+          <t>Orange Park Medical Center, Jacksonville, FL;; Liver Institute Northwest, Seattle, WA;; University of Arizona, Tucson, AZ;; University of California San Francisco, Fresno, CA;; Icahn School of Medicine at Mount Sinai, New York, NY;; Dayanand Medical College and Hospital, Ludhiana, Punjab, India;; Trident Medical Center, Charleston, SC;; Ross University School of Medicine, Maramar, FL;; UCSF Fresno, Fresno, CA.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>S472 Impact of Aspirin Use on Metastasis in Patients With Esophageal Cancer: A Nationwide Analysis 2016-2020</t>
+          <t>https://openalex.org/W4387749836</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>S1342 Association of Non-Alcoholic Fatty Liver Disease With Gastrointestinal Infections: Insights From National Inpatient Sample</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>2023-10-01</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>The American Journal of Gastroenterology</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.14309/01.ajg.0000951528.97496.27</t>
-        </is>
-      </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.14309/01.ajg.0000955008.92191.13</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.14309/01.ajg.0000951528.97496.27</t>
-        </is>
-      </c>
       <c r="P16" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.14309/01.ajg.0000955008.92191.13</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1672,80 +1752,85 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Shivam Kalra, Aalam Sohal, Hunza Chaudhry, Jay Patel, Ishandeep Singh, Isha Kohli, Kanwal Bains, Dino Dukovic, Marina Roytman</t>
+          <t>Kuntal Bhowmick, Breton Roussel, João Filipe G. Monteiro, Kanwal Bains, Mouhand Mohamed, Neha Wadhavkar, Markos Kalligeros, Sean Fine</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387749630</t>
+          <t>Warren Alpert Medical School of Brown University, Providence, RI;; Warren Alpert Medical School of Brown University, Providence, RI;; Brown Medicine/Lifespan, Providence, RI;; University of Arizona, Tucson, AZ;; Brown University, Providence, RI.; Brown University, Providence, RI.; Warren Alpert Medical School of Brown University, Providence, RI;; Warren Alpert Medical School of Brown University, Providence, RI;</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>S1566 Patients With NAFLD Are at an Increased Risk of Helicobacter pylori Infections: Results From National Inpatient Sample Analysis</t>
+          <t>https://openalex.org/W4387750383</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>S553 Sedation Choice Does Not Impact Procedure Duration in Endoscopic Food Bolus Disimpaction - A Multisite Experience</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>2023-10-01</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>The American Journal of Gastroenterology</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.14309/01.ajg.0000955904.16060.4f</t>
-        </is>
-      </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.14309/01.ajg.0000951852.27234.8b</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.14309/01.ajg.0000955904.16060.4f</t>
-        </is>
-      </c>
       <c r="P17" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.14309/01.ajg.0000951852.27234.8b</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1754,80 +1839,85 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Jay Patel, Aalam Sohal, Kanwal Bains, Hunza Chaudhry, Isha Kohli, Kirti Arora, Shivam Kalra, Dino Dukovic, Marina Roytman</t>
+          <t>Gagandeep Singh Arora, Aalam Sohal, Hunza Chaudhry, Shivam Kalra, I. S. Singh, Isha Kohli, Monisha Dhiman, Kanwal Bains</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387749836</t>
+          <t>University of California Riverside School of Medicine, San Bernardino, CA;; Liver Institute Northwest, Seattle, WA;; University of California San Francisco, Fresno, CA;; Trident Medical Center, Charleston, SC;; Dayanand Medical College and Hospital, Ludhiana, Punjab, India;; Icahn School of Medicine at Mount Sinai, New York, NY;; Punjab Institute of Medical Sciences, Jalandhar, Kharar, Punjab, India;; University of Arizona, Tucson, AZ.</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>S1342 Association of Non-Alcoholic Fatty Liver Disease With Gastrointestinal Infections: Insights From National Inpatient Sample</t>
+          <t>https://openalex.org/W4387751388</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>S1128 The Impact of Aspirin Use on Outcomes in Patients With Inflammatory Bowel Disease: Insights From a National Database</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>2023-10-01</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>The American Journal of Gastroenterology</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.14309/01.ajg.0000955008.92191.13</t>
-        </is>
-      </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.14309/01.ajg.0000954152.68710.4c</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.14309/01.ajg.0000955008.92191.13</t>
-        </is>
-      </c>
       <c r="P18" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.14309/01.ajg.0000954152.68710.4c</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1836,80 +1926,85 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Isha Kohli, Aalam Sohal, Hunza Chaudhry, Ishandeep Singh, Shivam Kalra, Kirti Arora, Dino Dukovic, Kanwal Bains, Marina Roytman</t>
+          <t>Kanwal Bains, Shivam Kalra, Inderjeet Singh, Jay Patel, Isha Kohli, Monisha Dhiman, Dino Dukovic, Aalam Sohal, Avin Aggarwal</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387750022</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>S1565 Vaccine-Preventable Illness in Liver Transplant Recipients: Analysis of 170,650 Hospitalizations</t>
+          <t>https://openalex.org/W4386219558</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>Prevalence and Impact of Malnutrition in Hospitalizations Among Celiac Diseases: A Nationwide Analysis</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>The American Journal of Gastroenterology</t>
+          <t>2023-08-28</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Lippincott Williams &amp; Wilkins</t>
+          <t>Cureus</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://doi.org/10.14309/01.ajg.0000955900.54770.74</t>
+          <t>Cureus, Inc.</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.7759/cureus.44247</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>https://doi.org/10.14309/01.ajg.0000955900.54770.74</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37772221</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.7759/cureus.44247</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1918,80 +2013,85 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Kuntal Bhowmick, Breton Roussel, João Filipe G. Monteiro, Kanwal Bains, Mouhand Mohamed, Neha Wadhavkar, Markos Kalligeros, Sean Fine</t>
+          <t>Jay Patel, Aalam Sohal, Armaan Dhaliwal, Hunza Chaudhry, Ishandeep Singh, Shivam Kalra, Dino Dukovic, Kanwal Bains</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387750383</t>
+          <t>Orange Park Medical Center, Jacksonville, FL;; Liver Institute Northwest, Seattle, WA;; University of Arizona, Tucson, AZ;; University of California San Francisco, Fresno, CA;; Dayanand Medical College and Hospital, Ludhiana, Punjab, India;; Trident Medical Center, Charleston, SC;; Ross University School of Medicine, Maramar, FL.; University of Arizona, Tucson, AZ;</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>S553 Sedation Choice Does Not Impact Procedure Duration in Endoscopic Food Bolus Disimpaction - A Multisite Experience</t>
+          <t>https://openalex.org/W4387733823</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>S472 Impact of Aspirin Use on Metastasis in Patients With Esophageal Cancer: A Nationwide Analysis 2016-2020</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>2023-10-01</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>The American Journal of Gastroenterology</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.14309/01.ajg.0000951852.27234.8b</t>
-        </is>
-      </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.14309/01.ajg.0000951528.97496.27</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="N20" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="O20" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.14309/01.ajg.0000951852.27234.8b</t>
-        </is>
-      </c>
       <c r="P20" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.14309/01.ajg.0000951528.97496.27</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2000,80 +2100,85 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Jay Patel, Aalam Sohal, Ishandeep Singh, Hunza Chaudhry, Shivam Kalra, Kirti Arora, Dino Dukovic, Kanwal Bains</t>
+          <t>Isha Kohli, Aalam Sohal, Hunza Chaudhry, Ishandeep Singh, Shivam Kalra, Kirti Arora, Dino Dukovic, Kanwal Bains, Marina Roytman</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387750582</t>
+          <t>Icahn School of Medicine at Mount Sinai, New York, NY;; Liver Institute Northwest, Seattle, WA;; University of California San Francisco, Fresno, CA;; Dayanand Medical College and Hospital, Ludhiana, Punjab, India;; Trident Medical Center, Charleston, SC;; Dayanand Medical College and Hospital, Ludhiana, Punjab, India;; Ross University School of Medicine, Maramar, FL;; University of Arizona, Tucson, AZ.; University of California San Francisco, Fresno, CA;</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>S704 Predictors and Impact of Aspiration Pneumonia in Patients Undergoing Esophagogastroduodenoscopy: National Inpatient Sample 2016-2020</t>
+          <t>https://openalex.org/W4387750022</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>S1565 Vaccine-Preventable Illness in Liver Transplant Recipients: Analysis of 170,650 Hospitalizations</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>2023-10-01</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>The American Journal of Gastroenterology</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.14309/01.ajg.0000952456.51433.15</t>
-        </is>
-      </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.14309/01.ajg.0000955900.54770.74</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="N21" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.14309/01.ajg.0000952456.51433.15</t>
-        </is>
-      </c>
       <c r="P21" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.14309/01.ajg.0000955900.54770.74</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2082,80 +2187,85 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Gagandeep Singh Arora, Aalam Sohal, Hunza Chaudhry, Shivam Kalra, I. S. Singh, Isha Kohli, Monisha Dhiman, Kanwal Bains</t>
+          <t>Jay Patel, Aalam Sohal, Ishandeep Singh, Hunza Chaudhry, Shivam Kalra, Kirti Arora, Dino Dukovic, Kanwal Bains</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387751388</t>
+          <t>Orange Park Medical Center, Jacksonville, FL;; Liver Institute Northwest, Seattle, WA;; Dayanand Medical College and Hospital, Ludhiana, Punjab, India;; University of California San Francisco, Fresno, CA;; Trident Medical Center, Charleston, SC;; Dayanand Medical College and Hospital, Ludhiana, Punjab, India;; Ross University School of Medicine, Maramar, FL;; University of Arizona, Tucson, AZ.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>S1128 The Impact of Aspirin Use on Outcomes in Patients With Inflammatory Bowel Disease: Insights From a National Database</t>
+          <t>https://openalex.org/W4387750582</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>S704 Predictors and Impact of Aspiration Pneumonia in Patients Undergoing Esophagogastroduodenoscopy: National Inpatient Sample 2016-2020</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>2023-10-01</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>The American Journal of Gastroenterology</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.14309/01.ajg.0000954152.68710.4c</t>
-        </is>
-      </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.14309/01.ajg.0000952456.51433.15</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
+      <c r="N22" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="O22" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.14309/01.ajg.0000954152.68710.4c</t>
-        </is>
-      </c>
       <c r="P22" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.14309/01.ajg.0000952456.51433.15</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
         <is>
           <t>article</t>
         </is>
